--- a/Student/Modules/03_DataModeling/Lab/Budgets.xlsx
+++ b/Student/Modules/03_DataModeling/Lab/Budgets.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Git\LibertyPowerBI\Modules\03_DataModeling\Lab\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Git\ADVPBI\Student\Modules\03_DataModeling\Lab\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -30,9 +30,6 @@
     <t>Category</t>
   </si>
   <si>
-    <t>Budget</t>
-  </si>
-  <si>
     <t>Q1</t>
   </si>
   <si>
@@ -55,6 +52,9 @@
   </si>
   <si>
     <t>Q4</t>
+  </si>
+  <si>
+    <t>Amount</t>
   </si>
 </sst>
 </file>
@@ -616,7 +616,7 @@
     <tableColumn id="1" name="Year"/>
     <tableColumn id="2" name="Quarter"/>
     <tableColumn id="3" name="Category"/>
-    <tableColumn id="4" name="Budget" dataDxfId="0"/>
+    <tableColumn id="4" name="Amount" dataDxfId="0"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -921,7 +921,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D17"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D2" sqref="D2"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
@@ -940,7 +942,7 @@
         <v>2</v>
       </c>
       <c r="D1" t="s">
-        <v>3</v>
+        <v>11</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.3">
@@ -948,10 +950,10 @@
         <v>2017</v>
       </c>
       <c r="B2" t="s">
+        <v>3</v>
+      </c>
+      <c r="C2" t="s">
         <v>4</v>
-      </c>
-      <c r="C2" t="s">
-        <v>5</v>
       </c>
       <c r="D2" s="1">
         <v>5000</v>
@@ -962,10 +964,10 @@
         <v>2017</v>
       </c>
       <c r="B3" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C3" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D3" s="1">
         <v>8000</v>
@@ -976,10 +978,10 @@
         <v>2017</v>
       </c>
       <c r="B4" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C4" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="D4" s="1">
         <v>8000</v>
@@ -990,10 +992,10 @@
         <v>2017</v>
       </c>
       <c r="B5" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C5" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="D5" s="1">
         <v>5000</v>
@@ -1004,10 +1006,10 @@
         <v>2017</v>
       </c>
       <c r="B6" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C6" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D6" s="1">
         <v>6000</v>
@@ -1018,10 +1020,10 @@
         <v>2017</v>
       </c>
       <c r="B7" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C7" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D7" s="1">
         <v>4000</v>
@@ -1032,10 +1034,10 @@
         <v>2017</v>
       </c>
       <c r="B8" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C8" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="D8" s="1">
         <v>7000</v>
@@ -1046,10 +1048,10 @@
         <v>2017</v>
       </c>
       <c r="B9" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C9" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="D9" s="1">
         <v>5000</v>
@@ -1060,10 +1062,10 @@
         <v>2017</v>
       </c>
       <c r="B10" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C10" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D10" s="1">
         <v>6000</v>
@@ -1074,10 +1076,10 @@
         <v>2017</v>
       </c>
       <c r="B11" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C11" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D11" s="1">
         <v>4000</v>
@@ -1088,10 +1090,10 @@
         <v>2017</v>
       </c>
       <c r="B12" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C12" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="D12" s="1">
         <v>7000</v>
@@ -1102,10 +1104,10 @@
         <v>2017</v>
       </c>
       <c r="B13" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C13" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="D13" s="1">
         <v>5000</v>
@@ -1116,10 +1118,10 @@
         <v>2017</v>
       </c>
       <c r="B14" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C14" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D14" s="1">
         <v>6000</v>
@@ -1130,10 +1132,10 @@
         <v>2017</v>
       </c>
       <c r="B15" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C15" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D15" s="1">
         <v>4000</v>
@@ -1144,10 +1146,10 @@
         <v>2017</v>
       </c>
       <c r="B16" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C16" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="D16" s="1">
         <v>7000</v>
@@ -1158,10 +1160,10 @@
         <v>2017</v>
       </c>
       <c r="B17" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C17" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="D17" s="1">
         <v>5000</v>
@@ -1176,12 +1178,6 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x01010085A37566C2E56148B1AE1DF0E2857568" ma:contentTypeVersion="2" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="8423242b38e20eeecec3b56a0ac8a5c5">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="2978fd79-a034-4097-895d-e527fabdbf11" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="bbeed23aba7b5be4b525757c036a6e11" ns2:_="">
     <xsd:import namespace="2978fd79-a034-4097-895d-e527fabdbf11"/>
@@ -1313,6 +1309,12 @@
 </ct:contentTypeSchema>
 </file>
 
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
+</file>
+
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <?mso-contentType ?>
 <FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
@@ -1323,22 +1325,6 @@
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{E71F7F9E-554C-4A77-B5BA-6FE3683A929B}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="2978fd79-a034-4097-895d-e527fabdbf11"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{F53750B2-2417-4E65-81E3-E9E7EA690CAA}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -1356,6 +1342,22 @@
 </ds:datastoreItem>
 </file>
 
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{E71F7F9E-554C-4A77-B5BA-6FE3683A929B}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="2978fd79-a034-4097-895d-e527fabdbf11"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{044568EA-0941-4756-8B28-ABE3B32F70CF}">
   <ds:schemaRefs>
